--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OleRud441\NPA_Fleet_bot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="14_{43C6B201-FF22-44CE-90A2-39B2AAA94739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D4B29A-AD4C-4C93-AF31-002ABD2A4F8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A0F0BC-99B8-4AB4-9630-2F261839B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -346,17 +346,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -410,6 +399,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -666,76 +660,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -802,10 +796,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E10" activeCellId="3" sqref="A10 B10 D10 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1084,7 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
@@ -1104,7 +1094,7 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1116,17 +1106,17 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -1142,13 +1132,13 @@
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -1175,65 +1165,65 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
     </row>
-    <row r="10" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1244,16 +1234,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1264,16 +1254,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1284,16 +1274,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1304,16 +1294,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1324,16 +1314,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1390,10 +1380,10 @@
       <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="42" t="s">

--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_15821EDDD31EFFB5F3F8C296C2FBF26213E69C8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31C503D6-3DEB-4E17-A860-2497935B9054}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="11_15821EDDD31EFFB5F3F8C296C2FBF26213E69C8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56AB1A2-5F8C-4DA6-B804-68A5A1132A2F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LOSS and DAMAGE REPORT</t>
   </si>
@@ -118,19 +118,13 @@
   <si>
     <t>Detailed description of events leading to the loss or damage:
 Детальний опис подій, що призвели до втрати або пошкодження</t>
-  </si>
-  <si>
-    <t>dfdfdfdfdfdfdfdfdf</t>
-  </si>
-  <si>
-    <t>dfdfdfdfdfdfdfdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -209,23 +203,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="36"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="48"/>
       <name val="Arial"/>
@@ -233,12 +210,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="28"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -265,42 +236,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="40"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="40"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="30"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="30"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="32"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -480,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -552,83 +533,86 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +933,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F10" activeCellId="5" sqref="A10 B10 C10 D10 E10 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +950,13 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
@@ -984,18 +968,18 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1006,14 +990,14 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
@@ -1026,138 +1010,134 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="25"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="40" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
@@ -1170,20 +1150,20 @@
       <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -1194,20 +1174,20 @@
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -1218,45 +1198,45 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{035B41F3-F0DA-483F-A7C8-FE4A86F9CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62473565-6F1F-4B8D-A6B6-F352EF0BC5A2}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2629049B-4235-4163-9A0C-44A8E745F060}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="LDR explanation" sheetId="36" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LDR template'!$A$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LDR template'!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -265,8 +265,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>LOSS and DAMAGE REPORT</t>
   </si>
@@ -274,9 +296,21 @@
     <t>Report No: LDR…………….........................</t>
   </si>
   <si>
+    <t>Item (lost or damaged)</t>
+  </si>
+  <si>
+    <t>ID/Serial No</t>
+  </si>
+  <si>
     <t>Name of user (responsible person)</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
     <t>Detailed description of events leading to the loss or damage:</t>
   </si>
   <si>
@@ -373,62 +407,44 @@
     <t>NB: Please complete the header/footer text to fit with your country programme!</t>
   </si>
   <si>
+    <t>Предмет (втрачений або пошкоджений)</t>
+  </si>
+  <si>
+    <t>ID/сер номер</t>
+  </si>
+  <si>
+    <t>ПІБ користувача (відповідальної особи)</t>
+  </si>
+  <si>
+    <t>Локація</t>
+  </si>
+  <si>
+    <t>Розподіл</t>
+  </si>
+  <si>
+    <t>Детальний опис подій, що призвели до втрати або пошкодження</t>
+  </si>
+  <si>
+    <t>Report received by Fleet Officer                        Signature &amp;  Date</t>
+  </si>
+  <si>
     <t>Explanation of any other action to be taken: / Пояснення будь-яких інших дій, які необхідно вжити:</t>
   </si>
   <si>
-    <t xml:space="preserve">Reported by / ПІБ                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Signature &amp; Date / Підпис &amp; Дата</t>
-  </si>
-  <si>
-    <t>Report received by Fleet Officer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Signature &amp;  Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item (lost or damaged)                     </t>
-  </si>
-  <si>
-    <t>Предмет (втрачений або пошкоджений)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID/Serial No </t>
-  </si>
-  <si>
-    <t>ID/сер номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of user (responsible person) </t>
-  </si>
-  <si>
-    <t>ПІБ користувача (відповідальної особи)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location                                                             </t>
-  </si>
-  <si>
-    <t>Локація</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allocation </t>
-  </si>
-  <si>
-    <t>Розподіл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailed description of events leading to the loss or damage:                                       </t>
-  </si>
-  <si>
-    <t>Детальний опис подій, що призвели до втрати або пошкодження</t>
+    <t>Reported by / ПІБ                           Signature &amp; Date / Підпис &amp; Дата</t>
+  </si>
+  <si>
+    <t>KMs / HOURs (where applicable)</t>
+  </si>
+  <si>
+    <t>КМ / Мотогодини (де застосовно)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -540,12 +556,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -774,11 +784,20 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -786,28 +805,17 @@
     <border>
       <left/>
       <right/>
-      <top style="dotted">
+      <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,6 +887,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -886,17 +897,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,29 +923,45 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,6 +975,24 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,69 +1002,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1063,17 +1041,42 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,63 +1163,72 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>23446</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2765536</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2385</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFFFCDF-1BFB-3CB3-FC2E-4E02D3354ECD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23446" y="0"/>
-          <a:ext cx="3435657" cy="823000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1567,455 +1579,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Worksheet_____1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B18" activeCellId="11" sqref="C5:D6 F5:G6 I5:I6 I8:I9 F8:G9 C8:D9 B13:I13 B14:I14 B15:I15 B16:I16 B17:I17 B18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="29" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="23" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16" style="29" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="29" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="29" customWidth="1"/>
     <col min="10" max="11" width="7.7109375" style="29" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
+    <row r="1" spans="1:13" ht="48.6" customHeight="1">
+      <c r="A1" s="60" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="60"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="C2" s="45"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+    <row r="2" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B5" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="H5" s="32" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="H3" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.1" customHeight="1">
+    <row r="4" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="27"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
+      <c r="B6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="56" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="56" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.1" customHeight="1">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="B11" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="B12" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="116" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="B13" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="B14" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" s="50" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B24" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="52" t="s">
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B22" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="C22" s="50" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="47"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="31">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.3" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LNPA 
 Mine Action and Disarmament in Ukraine&amp;CLogistics office (1931) - LDR&amp;R&amp;11SUBPROJECT...........................  ACTIVITY.......................</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Worksheet_____2"/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2043,18 +2055,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B2" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="93"/>
+      <c r="B2" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="G3" s="96" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="G3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2067,39 +2079,39 @@
     </row>
     <row r="5" spans="1:12" ht="14.1" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="97"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="84"/>
       <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="98"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="85"/>
       <c r="D6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="104"/>
+        <v>27</v>
+      </c>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2111,136 +2123,136 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="97"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="84"/>
       <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="98"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="85"/>
       <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
+        <v>27</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="14.1" customHeight="1"/>
     <row r="11" spans="1:12" ht="14.1" customHeight="1">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+        <v>31</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="84"/>
+      <c r="B20" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="110"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
+      <c r="E20" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2254,65 +2266,65 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="81"/>
+        <v>35</v>
+      </c>
+      <c r="E22" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="107"/>
       <c r="G22" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2324,7 +2336,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2336,29 +2348,29 @@
     <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
+      <c r="B29" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -2369,6 +2381,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2381,20 +2407,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2403,12 +2415,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2652,20 +2666,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2691,12 +2706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2629049B-4235-4163-9A0C-44A8E745F060}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3D3630-12F7-4EE0-B6FD-57ACD11898A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,28 +265,6 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
@@ -957,12 +935,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1037,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,72 +1141,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1850581</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>571580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2402827-DD5F-1FBF-E254-E7398BC98581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2505425" cy="571580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1585,7 +1548,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B18" activeCellId="11" sqref="C5:D6 F5:G6 I5:I6 I8:I9 F8:G9 C8:D9 B13:I13 B14:I14 B15:I15 B16:I16 B17:I17 B18:I18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1604,9 +1567,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.6" customHeight="1">
-      <c r="A1" s="60" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="A1" s="60"/>
       <c r="B1" s="60"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
@@ -1642,8 +1603,8 @@
       <c r="B5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="53" t="s">
         <v>3</v>
       </c>
@@ -1652,24 +1613,24 @@
       <c r="H5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="112"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="64"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
@@ -1687,34 +1648,34 @@
       <c r="B8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="112"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="64"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:13" ht="14.1" customHeight="1">
       <c r="B10" s="40"/>
@@ -1727,24 +1688,24 @@
       <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -1818,9 +1779,9 @@
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
@@ -1855,14 +1816,14 @@
       <c r="C22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="75" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="76"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="50" t="s">
         <v>12</v>
       </c>
@@ -2023,6 +1984,7 @@
     <oddFooter>&amp;LNPA 
 Mine Action and Disarmament in Ukraine&amp;CLogistics office (1931) - LDR&amp;R&amp;11SUBPROJECT...........................  ACTIVITY.......................</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2055,18 +2017,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="G3" s="83" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="G3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2084,16 +2046,16 @@
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2102,16 +2064,16 @@
       <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="91"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2128,12 +2090,12 @@
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2144,12 +2106,12 @@
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2158,101 +2120,101 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="110"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2274,10 +2236,10 @@
       <c r="D22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
@@ -2292,8 +2254,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2304,8 +2266,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2316,8 +2278,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2352,21 +2314,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="107"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2415,17 +2377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="535b2168fcdfa08d5fe4b3c537a327d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a80c41a55b420b429dddeb08232e9c7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2665,7 +2616,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2674,18 +2625,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8192209A-3427-419D-B233-BF35946140AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2705,10 +2656,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3D3630-12F7-4EE0-B6FD-57ACD11898A4}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B964C5-BD9D-4467-B5C3-051C6856710E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -508,31 +508,48 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -793,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -865,61 +882,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -929,52 +899,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1013,47 +963,118 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1569,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F24" sqref="F24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1567,8 +1588,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.6" customHeight="1">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1576,10 +1597,10 @@
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="43"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="25"/>
@@ -1593,373 +1614,359 @@
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="27"/>
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="54" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="55" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="113"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="34"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="52" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="56" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="112"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="55" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="55" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="113"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:13" ht="14.1" customHeight="1">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38" t="s">
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
     </row>
     <row r="21" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="49" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+    </row>
+    <row r="22" spans="1:9" s="37" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B22" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="113"/>
+      <c r="F22" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="113"/>
+      <c r="H22" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="111" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="45" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:I31"/>
     <mergeCell ref="A1:B1"/>
@@ -1976,6 +1983,21 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.3" bottom="0" header="0.3" footer="0.3"/>
@@ -2017,18 +2039,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="G3" s="81" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="G3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2046,16 +2068,16 @@
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2064,16 +2086,16 @@
       <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="89"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2090,12 +2112,12 @@
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2106,12 +2128,12 @@
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2120,101 +2142,101 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="108"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2236,10 +2258,10 @@
       <c r="D22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="105"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
@@ -2254,8 +2276,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2266,8 +2288,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2278,8 +2300,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2314,21 +2336,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2343,20 +2365,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2369,6 +2377,20 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2377,6 +2399,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="535b2168fcdfa08d5fe4b3c537a327d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a80c41a55b420b429dddeb08232e9c7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2616,27 +2658,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8192209A-3427-419D-B233-BF35946140AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2654,23 +2695,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel/LDR.xlsx
+++ b/excel/LDR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B964C5-BD9D-4467-B5C3-051C6856710E}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{F1764A5B-65E8-4A31-9BF4-667550316E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBDC4C1-A182-48AE-9225-5D5E6EDF582A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,6 +890,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,32 +950,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -963,119 +1052,30 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1588,8 +1588,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.6" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="30"/>
@@ -1621,352 +1621,367 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="79" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="85"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="86" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="14.1" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="92"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="34"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="79" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="95" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="85"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89" t="s">
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="14.1" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="35"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="35"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="105"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
       <c r="A20" s="35"/>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9" ht="9.75" customHeight="1">
       <c r="A21" s="35"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" s="37" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="113"/>
-      <c r="F22" s="112" t="s">
+      <c r="E22" s="80"/>
+      <c r="F22" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="111" t="s">
+      <c r="G22" s="80"/>
+      <c r="H22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="111" t="s">
+      <c r="I22" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1">
       <c r="A23" s="35"/>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="78" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1">
       <c r="A24" s="35"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1">
       <c r="A25" s="35"/>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1">
       <c r="A26" s="35"/>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1">
       <c r="A27" s="35"/>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1">
       <c r="A28" s="35"/>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:I31"/>
     <mergeCell ref="A1:B1"/>
@@ -1983,24 +1998,9 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0" right="0" top="0.3" bottom="0" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.31496062992125984" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LNPA 
@@ -2039,18 +2039,18 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="G3" s="58" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="G3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="14.1" customHeight="1">
       <c r="A4" s="1"/>
@@ -2068,16 +2068,16 @@
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -2086,16 +2086,16 @@
       <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="97"/>
     </row>
     <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="1"/>
@@ -2112,12 +2112,12 @@
       <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
@@ -2128,12 +2128,12 @@
       <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
@@ -2142,101 +2142,101 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="23"/>
@@ -2258,10 +2258,10 @@
       <c r="D22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="15" t="s">
         <v>36</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
@@ -2288,8 +2288,8 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
@@ -2300,8 +2300,8 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
@@ -2336,21 +2336,21 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="24" t="s">
@@ -2365,6 +2365,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2377,20 +2391,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2399,26 +2399,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056D3364E7B19EA498B82D7E374CE95F7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="535b2168fcdfa08d5fe4b3c537a327d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="459e8de4-66e5-47a5-8a43-b006616ce3ec" xmlns:ns3="729437f7-5cf8-4ba1-b417-1154ceee442d" xmlns:ns4="7e313902-c99d-4341-acc8-47e8c47e85b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a80c41a55b420b429dddeb08232e9c7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
@@ -2658,26 +2638,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
-    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="459e8de4-66e5-47a5-8a43-b006616ce3ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="729437f7-5cf8-4ba1-b417-1154ceee442d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8192209A-3427-419D-B233-BF35946140AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2695,4 +2676,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237AB02B-382B-4317-A7CB-44BE6B717AD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAC5C2A-287A-4C63-94F1-115887D19A92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="459e8de4-66e5-47a5-8a43-b006616ce3ec"/>
+    <ds:schemaRef ds:uri="729437f7-5cf8-4ba1-b417-1154ceee442d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>